--- a/数据整理/stocks/A股/上证主板/600008-首创股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600008-首创股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>47.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>86.69</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.59</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7624</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>86.69</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.59</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>91.16</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.65</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004250</t>
+          <t>000478</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河量化优选混合</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.01</t>
+          <t>41.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3794</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -650,26 +710,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>164811</t>
+          <t>005994</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+          <t>国投瑞银中证500指数量化增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -678,26 +748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>164825</t>
+          <t>512780</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+          <t>广发中证京津冀协同发展主题ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -706,26 +786,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005994</t>
+          <t>005633</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国投瑞银中证500指数量化增强A</t>
+          <t>建信中证500指数增强C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>88.21</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -734,26 +824,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007089</t>
+          <t>004250</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国投瑞银中证500指数量化增强C</t>
+          <t>银河量化优选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>88.21</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -762,26 +862,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000478</t>
+          <t>007089</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>国投瑞银中证500指数量化增强C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>84.44</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -790,26 +900,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005633</t>
+          <t>164811</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>建信中证500指数增强C</t>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>84.44</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -818,26 +938,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>512780</t>
+          <t>164825</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发中证京津冀协同发展主题ETF</t>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>99.46</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600008-首创股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600008-首创股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600008-首创股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600008-首创股份.xlsx
@@ -998,12 +998,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600008-首创股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600008-首创股份.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,167 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000478</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>建信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>47.95</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.69</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7624</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005633</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>建信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.69</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0161</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001899</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东海中证社会发展安全产业主题指数</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.16</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -982,64 +880,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.44</v>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7624</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.78</v>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>